--- a/imageCreationExcel/back/darkyobi/darkyobi_11.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_11.xlsx
@@ -486,24 +486,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.05733378310968051</v>
+        <v>0.8911069864244118</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9420639738761063</v>
+        <v>0.5436529793432938</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16.69206337746776</v>
+        <v>12.4956067266938</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_7_sharpness0.057_contrast0.94_equalization17.0.jpg</t>
+          <t>1_E_contrast0.89_gamma0.54_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25.92569467987256</v>
+        <v>18.38048161232222</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,22 +545,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6339685571986269</v>
+        <v>0.9725582525475311</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.2605159956574075</v>
+        <v>0.9022531331178679</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_P_brightness26.0_gamma0.63_sharpness0.26.jpg</t>
+          <t>2_3_brightness18.0_gamma0.97_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9131298776727659</v>
+        <v>0.7631434347067989</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>22.04964707687106</v>
+        <v>0.8574921720618425</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.1737584358022987</v>
+        <v>1.004138610355919</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_2_contrast0.91_brightness22.0_sharpness0.17.jpg</t>
+          <t>3_8_gamma0.76_sharpness0.86_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.09219674392648081</v>
+        <v>15.84129944364175</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.058736835688221</v>
+        <v>0.9819754921325037</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8641183886241068</v>
+        <v>0.7200341369903922</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_B_sharpness0.092_contrast1.1_gamma0.86.jpg</t>
+          <t>4_T_brightness16.0_sharpness0.98_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7540784735326808</v>
+        <v>0.3971163023486497</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.2930110318407828</v>
+        <v>16.18707644370104</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.6705624197943</v>
+        <v>1.043657586080254</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_0_gamma0.75_sharpness0.29_equalization18.0.jpg</t>
+          <t>5_2_sharpness0.4_brightness16.0_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.874269735416247</v>
+        <v>1.080655018548609</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.4678176662447756</v>
+        <v>0.7822186635405262</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9018226716550617</v>
+        <v>22.08799629252112</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_P_gamma0.87_sharpness0.47_contrast0.9.jpg</t>
+          <t>6_0_contrast1.1_gamma0.78_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -738,24 +738,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8527402392684384</v>
+        <v>0.5858136433817868</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.076216658346896</v>
+        <v>0.6811504381163724</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.50248625034413</v>
+        <v>31.05453037783906</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_contrast0.85_gamma1.1_equalization22.0.jpg</t>
+          <t>7_9_gamma0.59_sharpness0.68_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -785,11 +785,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2370014521377147</v>
+        <v>0.6130284914029892</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9871162348410283</v>
+        <v>0.800923863039312</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.334666937377559</v>
+        <v>0.6686150802240844</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_2_sharpness0.24_contrast0.99_equalization5.3.jpg</t>
+          <t>8_2_gamma0.61_contrast0.8_sharpness0.67.jpg</t>
         </is>
       </c>
     </row>
@@ -822,24 +822,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8373211747651279</v>
+        <v>0.7546653784118613</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1346908258589918</v>
+        <v>1.130309839882023</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.168143127281828</v>
+        <v>29.93398709802931</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_1_contrast0.84_sharpness0.13_equalization9.2.jpg</t>
+          <t>9_2_gamma0.75_contrast1.1_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6291073944792944</v>
+        <v>0.6283325541763409</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.4137305141121905</v>
+        <v>0.1307414058069053</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.676032627771645</v>
+        <v>5.57692595740095</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_E_gamma0.63_sharpness0.41_equalization6.7.jpg</t>
+          <t>10_9_gamma0.63_sharpness0.13_brightness5.6.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9388831240955681</v>
+        <v>8.7477457257919</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7935620921753305</v>
+        <v>0.8049253426040435</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>19.83192685778768</v>
+        <v>0.851644294162613</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_1_contrast0.94_sharpness0.79_brightness20.0.jpg</t>
+          <t>11_2_brightness8.7_contrast0.8_gamma0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.080360592604563</v>
+        <v>1.037379816026546</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.757452946622661</v>
+        <v>24.81356974470487</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.005671249001107</v>
+        <v>0.5181346102202912</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_2_contrast1.1_brightness6.8_gamma1.0.jpg</t>
+          <t>12_2_contrast1.0_brightness25.0_gamma0.52.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2081889475314066</v>
+        <v>0.7296090106069576</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8804530004389043</v>
+        <v>0.9974433512264516</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9.70606328935588</v>
+        <v>8.070159235695016</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_8_sharpness0.21_contrast0.88_equalization9.7.jpg</t>
+          <t>13_I_sharpness0.73_contrast1.0_equalization8.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,30 +1041,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9285908466060292</v>
+        <v>0.7214806568672307</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>16.55981624633532</v>
+        <v>1.01567149597229</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5191282035507724</v>
+        <v>17.74402377493266</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_C_gamma0.93_brightness17.0_sharpness0.52.jpg</t>
+          <t>14_S_gamma0.72_contrast1.0_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,15 +1083,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.08859152471698262</v>
+        <v>0.5853215872853829</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9327974948937021</v>
+        <v>0.869824642401577</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>20.66229970731246</v>
+        <v>21.13220903116921</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_sharpness0.089_contrast0.93_equalization21.0.jpg</t>
+          <t>15_8_sharpness0.59_gamma0.87_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.333543845246247</v>
+        <v>4.520273921673033</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.021667364966613</v>
+        <v>0.8473065468739613</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.1747992753624474</v>
+        <v>0.8788531063212044</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_E_brightness1.3_contrast1.0_sharpness0.17.jpg</t>
+          <t>16_9_brightness4.5_gamma0.85_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8531448991040467</v>
+        <v>0.6778774038966123</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.023073364370108</v>
+        <v>1.012304255206594</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>13.90354264315019</v>
+        <v>16.79140729779038</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_1_gamma0.85_contrast1.0_brightness14.0.jpg</t>
+          <t>17_I_gamma0.68_contrast1.0_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5374483262718174</v>
+        <v>0.9066592546817543</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.090259775653169</v>
+        <v>0.5933702268013292</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>30.70454867514439</v>
+        <v>24.21813423041058</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_E_sharpness0.54_gamma1.1_equalization31.0.jpg</t>
+          <t>18_8_contrast0.91_gamma0.59_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,16 +1242,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4842491993258793</v>
+        <v>0.8524760578012216</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8349834803748284</v>
+        <v>0.868535941435036</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>30.04659397574669</v>
+        <v>19.81152598904536</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_3_sharpness0.48_gamma0.83_equalization30.0.jpg</t>
+          <t>19_S_contrast0.85_gamma0.87_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8799158691653624</v>
+        <v>0.8872995656432416</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6112092888913684</v>
+        <v>1.182373465549384</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.505728660418056</v>
+        <v>16.74296179041591</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_C_contrast0.88_sharpness0.61_equalization4.5.jpg</t>
+          <t>20_8_sharpness0.89_contrast1.2_brightness17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.176227615370482</v>
+        <v>18.56958359556657</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.068640591511967</v>
+        <v>0.8831784862101675</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6.51021912345775</v>
+        <v>0.03593422368183019</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_8_contrast1.2_gamma1.1_equalization6.5.jpg</t>
+          <t>21_7_brightness19.0_gamma0.88_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9948628005793063</v>
+        <v>1.009021819665977</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.120768200222049</v>
+        <v>1.050239669457368</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>18.86125327278335</v>
+        <v>0.4056039106323432</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_8_sharpness0.99_contrast1.1_equalization19.0.jpg</t>
+          <t>22_B_contrast1.0_gamma1.1_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,24 +1410,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7057180217598088</v>
+        <v>0.9209036782292428</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5821895872257153</v>
+        <v>0.9796350858522856</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>11.6382392006813</v>
+        <v>17.05761535358663</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_B_sharpness0.71_gamma0.58_equalization12.0.jpg</t>
+          <t>23_2_gamma0.92_sharpness0.98_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.3865212916978629</v>
+        <v>0.6069197304287658</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8171373051535926</v>
+        <v>21.94584417062808</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>21.01782614654576</v>
+        <v>0.982207803417582</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_P_sharpness0.39_gamma0.82_equalization21.0.jpg</t>
+          <t>24_S_sharpness0.61_brightness22.0_gamma0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.4645926941719342</v>
+        <v>0.8513324632800734</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>13.6307743374489</v>
+        <v>1.061342733296432</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.8602431791817873</v>
+        <v>12.96027872808569</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_sharpness0.46_brightness14.0_gamma0.86.jpg</t>
+          <t>25_2_gamma0.85_contrast1.1_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.6369395413146872</v>
+        <v>29.69869787355496</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.6807582554812722</v>
+        <v>0.9384977505012171</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>23.90330059745511</v>
+        <v>0.28779196798809</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_E_gamma0.64_sharpness0.68_brightness24.0.jpg</t>
+          <t>26_9_brightness30.0_contrast0.94_sharpness0.29.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13.13062446390502</v>
+        <v>0.8637118992004903</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8067999182965573</v>
+        <v>0.6164102090536875</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.8658446755189961</v>
+        <v>14.69472767342709</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_8_brightness13.0_gamma0.81_sharpness0.87.jpg</t>
+          <t>27_C_contrast0.86_sharpness0.62_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5962113207793622</v>
+        <v>0.841065773212178</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>13.71071651062474</v>
+        <v>1.023878093233254</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.9848550924631413</v>
+        <v>5.317765300683999</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_C_sharpness0.6_brightness14.0_contrast0.98.jpg</t>
+          <t>28_P_contrast0.84_gamma1.0_equalization5.3.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.7921689147537359</v>
+        <v>10.01349892209162</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.085953021771187</v>
+        <v>0.2755699608276408</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>19.0088975610965</v>
+        <v>0.8713646937726705</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_T_gamma0.79_contrast1.1_equalization19.0.jpg</t>
+          <t>29_3_brightness10.0_sharpness0.28_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5583480503863645</v>
+        <v>0.581745075225448</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5277029235759892</v>
+        <v>0.802835034888956</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5.23332685184136</v>
+        <v>7.857121872061541</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_E_gamma0.56_sharpness0.53_equalization5.2.jpg</t>
+          <t>30_B_sharpness0.58_contrast0.8_equalization7.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9574364972184578</v>
+        <v>29.0896539107249</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.080869207976732</v>
+        <v>0.6430374553054683</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.6403814857104532</v>
+        <v>0.5878788956651576</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_contrast0.96_brightness5.1_gamma0.64.jpg</t>
+          <t>31_T_brightness29.0_gamma0.64_sharpness0.59.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8223908670874714</v>
+        <v>7.439758727078781</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6090715392736632</v>
+        <v>1.045955003871041</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9.98768140889478</v>
+        <v>0.41379462814155</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_9_contrast0.82_gamma0.61_equalization10.0.jpg</t>
+          <t>32_P_brightness7.4_contrast1.0_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.6042253540660362</v>
+        <v>0.6141115094464119</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9127585621503733</v>
+        <v>1.033212663799783</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>18.49890608962575</v>
+        <v>12.89616787478366</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_sharpness0.6_gamma0.91_brightness18.0.jpg</t>
+          <t>33_T_gamma0.61_contrast1.0_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.260620392089948</v>
+        <v>5.224276081500175</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.6834184386342045</v>
+        <v>1.056147217626812</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.8378322118692774</v>
+        <v>1.129514200117469</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_P_brightness1.3_gamma0.68_contrast0.84.jpg</t>
+          <t>34_E_brightness5.2_gamma1.1_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,30 +1923,30 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20.21996626670446</v>
+        <v>3.801112489035351</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6643341084771407</v>
+        <v>1.041862800313357</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.199798986034595</v>
+        <v>1.035822462023196</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_brightness20.0_sharpness0.66_contrast1.2.jpg</t>
+          <t>35_P_brightness3.8_contrast1.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9664622790222527</v>
+        <v>0.3345010036821782</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.3975176997584537</v>
+        <v>0.598522896860894</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.8925769317022243</v>
+        <v>16.62131018194861</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_1_contrast0.97_sharpness0.4_gamma0.89.jpg</t>
+          <t>36_B_sharpness0.33_gamma0.6_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,15 +2007,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7194697190959879</v>
+        <v>0.841784242630174</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.6227068563205823</v>
+        <v>0.8013504762633241</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6.668002087309638</v>
+        <v>25.79381262118353</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_I_gamma0.72_sharpness0.62_equalization6.7.jpg</t>
+          <t>37_8_gamma0.84_contrast0.8_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.1768902465475356</v>
+        <v>0.9633418164114922</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>11.9659848234864</v>
+        <v>21.41011402567533</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.026908083162775</v>
+        <v>0.5041765871399569</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_sharpness0.18_brightness12.0_contrast1.0.jpg</t>
+          <t>38_B_gamma0.96_brightness21.0_sharpness0.5.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,24 +2082,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8891052138863949</v>
+        <v>0.874209588570199</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.4244495585604686</v>
+        <v>0.8108592912345314</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>10.08438347299474</v>
+        <v>6.38123781287821</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_0_gamma0.89_sharpness0.42_equalization10.0.jpg</t>
+          <t>39_7_sharpness0.87_gamma0.81_equalization6.4.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,15 +2133,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.07651268254896304</v>
+        <v>0.08052806231581611</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.097535631257454</v>
+        <v>1.142030654606157</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10.42049281538525</v>
+        <v>28.72505850084135</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_sharpness0.077_gamma1.1_equalization10.0.jpg</t>
+          <t>40_T_sharpness0.081_contrast1.1_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,16 +2166,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.803325195794978</v>
+        <v>0.7321857212273591</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6349454788805151</v>
+        <v>0.8683919877236638</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.085409892007136</v>
+        <v>1.083326006998709</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_T_contrast0.8_gamma0.63_brightness1.1.jpg</t>
+          <t>41_3_sharpness0.73_gamma0.87_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,24 +2208,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.02349160884274815</v>
+        <v>0.7291739606965622</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9635931306359906</v>
+        <v>0.2949861961122821</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6.406250030781447</v>
+        <v>19.53148645988355</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_7_sharpness0.023_gamma0.96_equalization6.4.jpg</t>
+          <t>42_B_gamma0.73_sharpness0.29_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2255,19 +2255,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9990572426940568</v>
+        <v>0.753122681476456</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.749817805781364</v>
+        <v>0.8306987708840177</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>31.08201119112344</v>
+        <v>19.89528065134081</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_I_contrast1.0_sharpness0.75_equalization31.0.jpg</t>
+          <t>43_I_gamma0.75_contrast0.83_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.5263108076824695</v>
+        <v>20.82440826172873</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.105458102812018</v>
+        <v>0.9957047646744197</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>24.2618967812809</v>
+        <v>0.9395110319880291</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_8_sharpness0.53_contrast1.1_equalization24.0.jpg</t>
+          <t>44_3_brightness21.0_sharpness1.0_gamma0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>13.18645474024137</v>
+        <v>1.106182934745454</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.7239977134916729</v>
+        <v>1.053089169480968</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.8526343819248803</v>
+        <v>25.75151698262112</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_3_brightness13.0_sharpness0.72_gamma0.85.jpg</t>
+          <t>45_B_contrast1.1_gamma1.1_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,24 +2376,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9720868585630519</v>
+        <v>0.9814539963303475</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.2488517466067525</v>
+        <v>0.9376966859836465</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15.04465998469166</v>
+        <v>12.92630208985691</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_1_contrast0.97_sharpness0.25_equalization15.0.jpg</t>
+          <t>46_T_gamma0.98_contrast0.94_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.034749835330443</v>
+        <v>27.24903330965784</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.025752947099081</v>
+        <v>0.8330157295673046</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>31.500858678803</v>
+        <v>0.6099171915880917</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_E_gamma1.0_contrast1.0_equalization32.0.jpg</t>
+          <t>47_1_brightness27.0_contrast0.83_sharpness0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -2465,19 +2465,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6896307443866466</v>
+        <v>1.166438498244345</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9607448700212531</v>
+        <v>0.8223372257365072</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>16.11376018694579</v>
+        <v>9.6105925391117</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_P_gamma0.69_sharpness0.96_equalization16.0.jpg</t>
+          <t>48_P_contrast1.2_gamma0.82_equalization9.6.jpg</t>
         </is>
       </c>
     </row>
